--- a/contratos/contratos-3-2017.xlsx
+++ b/contratos/contratos-3-2017.xlsx
@@ -985,7 +985,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MORALES GONZALEZ VITAL RAFAEL</t>
@@ -1183,7 +1183,7 @@
     <t>COLOMBO DANIEL ROBERTO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>LAMOUROUX ROQUE ANTONIO</t>
@@ -1201,10 +1201,10 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1786,730 +1786,730 @@
     <t>127</t>
   </si>
   <si>
-    <t>38.025,00</t>
-  </si>
-  <si>
-    <t>5.550,00</t>
-  </si>
-  <si>
-    <t>16.950,00</t>
-  </si>
-  <si>
-    <t>49.600,00</t>
-  </si>
-  <si>
-    <t>138.000,00</t>
-  </si>
-  <si>
-    <t>4.373,50</t>
-  </si>
-  <si>
-    <t>11.730,00</t>
-  </si>
-  <si>
-    <t>1.480.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>86.000,00</t>
-  </si>
-  <si>
-    <t>3.089,80</t>
-  </si>
-  <si>
-    <t>4.666,00</t>
-  </si>
-  <si>
-    <t>8.100,00</t>
-  </si>
-  <si>
-    <t>64.000,00</t>
-  </si>
-  <si>
-    <t>210.000,00</t>
-  </si>
-  <si>
-    <t>103.666,00</t>
-  </si>
-  <si>
-    <t>63.810,00</t>
-  </si>
-  <si>
-    <t>16.653,60</t>
-  </si>
-  <si>
-    <t>15.544,00</t>
-  </si>
-  <si>
-    <t>50.680,50</t>
-  </si>
-  <si>
-    <t>14.564,00</t>
-  </si>
-  <si>
-    <t>80.555,74</t>
-  </si>
-  <si>
-    <t>11.378,06</t>
-  </si>
-  <si>
-    <t>5.349,52</t>
-  </si>
-  <si>
-    <t>29.930,12</t>
-  </si>
-  <si>
-    <t>5.635,00</t>
-  </si>
-  <si>
-    <t>87.144,00</t>
-  </si>
-  <si>
-    <t>36.163,59</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>6.433,00</t>
-  </si>
-  <si>
-    <t>162.050,00</t>
-  </si>
-  <si>
-    <t>661,02</t>
-  </si>
-  <si>
-    <t>8.718,25</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>14.820,00</t>
-  </si>
-  <si>
-    <t>102.402,58</t>
-  </si>
-  <si>
-    <t>400,57</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>1.127,39</t>
-  </si>
-  <si>
-    <t>87.624,50</t>
-  </si>
-  <si>
-    <t>3.087.000,00</t>
-  </si>
-  <si>
-    <t>6.459,51</t>
-  </si>
-  <si>
-    <t>4.658,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>2.394,40</t>
-  </si>
-  <si>
-    <t>597.493,02</t>
-  </si>
-  <si>
-    <t>13.460,62</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>3.801,32</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>12.400,00</t>
-  </si>
-  <si>
-    <t>8.527,29</t>
-  </si>
-  <si>
-    <t>5.872,74</t>
-  </si>
-  <si>
-    <t>842,80</t>
-  </si>
-  <si>
-    <t>8.300,00</t>
-  </si>
-  <si>
-    <t>7.674,96</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>301.700,74</t>
-  </si>
-  <si>
-    <t>3.055,21</t>
-  </si>
-  <si>
-    <t>17.441,27</t>
-  </si>
-  <si>
-    <t>5.019,99</t>
-  </si>
-  <si>
-    <t>3.560,00</t>
-  </si>
-  <si>
-    <t>9.510,43</t>
-  </si>
-  <si>
-    <t>10.230,00</t>
-  </si>
-  <si>
-    <t>27.900,00</t>
-  </si>
-  <si>
-    <t>26.200,00</t>
-  </si>
-  <si>
-    <t>6.402,66</t>
-  </si>
-  <si>
-    <t>4.081,08</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>2.492,80</t>
-  </si>
-  <si>
-    <t>10.480,00</t>
-  </si>
-  <si>
-    <t>6.009,53</t>
-  </si>
-  <si>
-    <t>3.890,75</t>
-  </si>
-  <si>
-    <t>19.559,87</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>968,00</t>
-  </si>
-  <si>
-    <t>10.276,19</t>
-  </si>
-  <si>
-    <t>1.424,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>534,00</t>
-  </si>
-  <si>
-    <t>5.630,00</t>
-  </si>
-  <si>
-    <t>17.155,72</t>
-  </si>
-  <si>
-    <t>30.560,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>756,00</t>
-  </si>
-  <si>
-    <t>13.254,00</t>
-  </si>
-  <si>
-    <t>5.021,00</t>
-  </si>
-  <si>
-    <t>7.548,00</t>
-  </si>
-  <si>
-    <t>140,25</t>
-  </si>
-  <si>
-    <t>880,00</t>
-  </si>
-  <si>
-    <t>1.313,00</t>
-  </si>
-  <si>
-    <t>406,00</t>
-  </si>
-  <si>
-    <t>192,00</t>
-  </si>
-  <si>
-    <t>3.875,00</t>
-  </si>
-  <si>
-    <t>590.620,31</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>2.563,00</t>
-  </si>
-  <si>
-    <t>70.112,60</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>83.146,71</t>
-  </si>
-  <si>
-    <t>753,00</t>
-  </si>
-  <si>
-    <t>35.866,00</t>
-  </si>
-  <si>
-    <t>3.660,00</t>
-  </si>
-  <si>
-    <t>78,60</t>
-  </si>
-  <si>
-    <t>10.008,17</t>
-  </si>
-  <si>
-    <t>3.219,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>3.252,49</t>
-  </si>
-  <si>
-    <t>5.360,00</t>
-  </si>
-  <si>
-    <t>1.626,80</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>4.248,00</t>
-  </si>
-  <si>
-    <t>10.134,00</t>
-  </si>
-  <si>
-    <t>13.950,00</t>
-  </si>
-  <si>
-    <t>2.246,00</t>
-  </si>
-  <si>
-    <t>41.019,31</t>
-  </si>
-  <si>
-    <t>5.491,00</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>1.503,32</t>
-  </si>
-  <si>
-    <t>777,60</t>
-  </si>
-  <si>
-    <t>617,15</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>618,42</t>
-  </si>
-  <si>
-    <t>10.084,12</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>5.980,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>4.532,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>20.013,00</t>
-  </si>
-  <si>
-    <t>72.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.250,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>13.240,00</t>
-  </si>
-  <si>
-    <t>189.194,59</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>477,00</t>
-  </si>
-  <si>
-    <t>436,00</t>
-  </si>
-  <si>
-    <t>271,95</t>
-  </si>
-  <si>
-    <t>3.393,00</t>
-  </si>
-  <si>
-    <t>728,48</t>
-  </si>
-  <si>
-    <t>31.417,00</t>
-  </si>
-  <si>
-    <t>246,66</t>
-  </si>
-  <si>
-    <t>467.500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>48.368,54</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>9.998,24</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>23.424,50</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>14.580,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>24.300,00</t>
-  </si>
-  <si>
-    <t>18.300,00</t>
-  </si>
-  <si>
-    <t>15.500,00</t>
-  </si>
-  <si>
-    <t>37.880,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>54.994,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>85.000,00</t>
-  </si>
-  <si>
-    <t>24.340,00</t>
-  </si>
-  <si>
-    <t>1.996,50</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>2.214,00</t>
-  </si>
-  <si>
-    <t>7.203,00</t>
-  </si>
-  <si>
-    <t>16.990,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>622,78</t>
-  </si>
-  <si>
-    <t>10.613,22</t>
-  </si>
-  <si>
-    <t>4.152,00</t>
-  </si>
-  <si>
-    <t>148.200,02</t>
-  </si>
-  <si>
-    <t>23.968,00</t>
-  </si>
-  <si>
-    <t>1.420,00</t>
-  </si>
-  <si>
-    <t>33.760,00</t>
-  </si>
-  <si>
-    <t>904,09</t>
-  </si>
-  <si>
-    <t>7.670,00</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>11.260,00</t>
-  </si>
-  <si>
-    <t>10.908,43</t>
-  </si>
-  <si>
-    <t>826,83</t>
-  </si>
-  <si>
-    <t>13.350,00</t>
-  </si>
-  <si>
-    <t>10.965,00</t>
-  </si>
-  <si>
-    <t>9.533,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>7.201,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.283,74</t>
-  </si>
-  <si>
-    <t>468.945,60</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>21.950,00</t>
-  </si>
-  <si>
-    <t>7.923,37</t>
-  </si>
-  <si>
-    <t>3.079.055,95</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>216,86</t>
-  </si>
-  <si>
-    <t>2.350,00</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>116.190,00</t>
-  </si>
-  <si>
-    <t>122.190,00</t>
-  </si>
-  <si>
-    <t>118.670,00</t>
-  </si>
-  <si>
-    <t>200.190,00</t>
-  </si>
-  <si>
-    <t>284.190,00</t>
-  </si>
-  <si>
-    <t>299.910,00</t>
-  </si>
-  <si>
-    <t>117.415,00</t>
-  </si>
-  <si>
-    <t>201.440,00</t>
-  </si>
-  <si>
-    <t>285.470,00</t>
-  </si>
-  <si>
-    <t>184.190,00</t>
-  </si>
-  <si>
-    <t>122.890,00</t>
-  </si>
-  <si>
-    <t>666.861,76</t>
-  </si>
-  <si>
-    <t>81.102,50</t>
-  </si>
-  <si>
-    <t>60.574,00</t>
-  </si>
-  <si>
-    <t>8.223,00</t>
-  </si>
-  <si>
-    <t>151.653,00</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>5.180,00</t>
-  </si>
-  <si>
-    <t>14.500,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>7.061,00</t>
-  </si>
-  <si>
-    <t>6.380,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>16.479,88</t>
-  </si>
-  <si>
-    <t>1.802,04</t>
+    <t>38025.00</t>
+  </si>
+  <si>
+    <t>5550.00</t>
+  </si>
+  <si>
+    <t>16950.00</t>
+  </si>
+  <si>
+    <t>49600.00</t>
+  </si>
+  <si>
+    <t>138000.00</t>
+  </si>
+  <si>
+    <t>4373.50</t>
+  </si>
+  <si>
+    <t>11730.00</t>
+  </si>
+  <si>
+    <t>1480000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>86000.00</t>
+  </si>
+  <si>
+    <t>3089.80</t>
+  </si>
+  <si>
+    <t>4666.00</t>
+  </si>
+  <si>
+    <t>8100.00</t>
+  </si>
+  <si>
+    <t>64000.00</t>
+  </si>
+  <si>
+    <t>210000.00</t>
+  </si>
+  <si>
+    <t>103666.00</t>
+  </si>
+  <si>
+    <t>63810.00</t>
+  </si>
+  <si>
+    <t>16653.60</t>
+  </si>
+  <si>
+    <t>15544.00</t>
+  </si>
+  <si>
+    <t>50680.50</t>
+  </si>
+  <si>
+    <t>14564.00</t>
+  </si>
+  <si>
+    <t>80555.74</t>
+  </si>
+  <si>
+    <t>11378.06</t>
+  </si>
+  <si>
+    <t>5349.52</t>
+  </si>
+  <si>
+    <t>29930.12</t>
+  </si>
+  <si>
+    <t>5635.00</t>
+  </si>
+  <si>
+    <t>87144.00</t>
+  </si>
+  <si>
+    <t>36163.59</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>6433.00</t>
+  </si>
+  <si>
+    <t>162050.00</t>
+  </si>
+  <si>
+    <t>661.02</t>
+  </si>
+  <si>
+    <t>8718.25</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>14820.00</t>
+  </si>
+  <si>
+    <t>102402.58</t>
+  </si>
+  <si>
+    <t>400.57</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>1127.39</t>
+  </si>
+  <si>
+    <t>87624.50</t>
+  </si>
+  <si>
+    <t>3087000.00</t>
+  </si>
+  <si>
+    <t>6459.51</t>
+  </si>
+  <si>
+    <t>4658.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>2394.40</t>
+  </si>
+  <si>
+    <t>597493.02</t>
+  </si>
+  <si>
+    <t>13460.62</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>3801.32</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>8527.29</t>
+  </si>
+  <si>
+    <t>5872.74</t>
+  </si>
+  <si>
+    <t>842.80</t>
+  </si>
+  <si>
+    <t>8300.00</t>
+  </si>
+  <si>
+    <t>7674.96</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>301700.74</t>
+  </si>
+  <si>
+    <t>3055.21</t>
+  </si>
+  <si>
+    <t>17441.27</t>
+  </si>
+  <si>
+    <t>5019.99</t>
+  </si>
+  <si>
+    <t>3560.00</t>
+  </si>
+  <si>
+    <t>9510.43</t>
+  </si>
+  <si>
+    <t>10230.00</t>
+  </si>
+  <si>
+    <t>27900.00</t>
+  </si>
+  <si>
+    <t>26200.00</t>
+  </si>
+  <si>
+    <t>6402.66</t>
+  </si>
+  <si>
+    <t>4081.08</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>2492.80</t>
+  </si>
+  <si>
+    <t>10480.00</t>
+  </si>
+  <si>
+    <t>6009.53</t>
+  </si>
+  <si>
+    <t>3890.75</t>
+  </si>
+  <si>
+    <t>19559.87</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>968.00</t>
+  </si>
+  <si>
+    <t>10276.19</t>
+  </si>
+  <si>
+    <t>1424.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>534.00</t>
+  </si>
+  <si>
+    <t>5630.00</t>
+  </si>
+  <si>
+    <t>17155.72</t>
+  </si>
+  <si>
+    <t>30560.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>756.00</t>
+  </si>
+  <si>
+    <t>13254.00</t>
+  </si>
+  <si>
+    <t>5021.00</t>
+  </si>
+  <si>
+    <t>7548.00</t>
+  </si>
+  <si>
+    <t>140.25</t>
+  </si>
+  <si>
+    <t>880.00</t>
+  </si>
+  <si>
+    <t>1313.00</t>
+  </si>
+  <si>
+    <t>406.00</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>3875.00</t>
+  </si>
+  <si>
+    <t>590620.31</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>2563.00</t>
+  </si>
+  <si>
+    <t>70112.60</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>83146.71</t>
+  </si>
+  <si>
+    <t>753.00</t>
+  </si>
+  <si>
+    <t>35866.00</t>
+  </si>
+  <si>
+    <t>3660.00</t>
+  </si>
+  <si>
+    <t>78.60</t>
+  </si>
+  <si>
+    <t>10008.17</t>
+  </si>
+  <si>
+    <t>3219.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>3252.49</t>
+  </si>
+  <si>
+    <t>5360.00</t>
+  </si>
+  <si>
+    <t>1626.80</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>4248.00</t>
+  </si>
+  <si>
+    <t>10134.00</t>
+  </si>
+  <si>
+    <t>13950.00</t>
+  </si>
+  <si>
+    <t>2246.00</t>
+  </si>
+  <si>
+    <t>41019.31</t>
+  </si>
+  <si>
+    <t>5491.00</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>1503.32</t>
+  </si>
+  <si>
+    <t>777.60</t>
+  </si>
+  <si>
+    <t>617.15</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>618.42</t>
+  </si>
+  <si>
+    <t>10084.12</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>5980.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>4532.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>20013.00</t>
+  </si>
+  <si>
+    <t>72000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7250.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>13240.00</t>
+  </si>
+  <si>
+    <t>189194.59</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>477.00</t>
+  </si>
+  <si>
+    <t>436.00</t>
+  </si>
+  <si>
+    <t>271.95</t>
+  </si>
+  <si>
+    <t>3393.00</t>
+  </si>
+  <si>
+    <t>728.48</t>
+  </si>
+  <si>
+    <t>31417.00</t>
+  </si>
+  <si>
+    <t>246.66</t>
+  </si>
+  <si>
+    <t>467500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>48368.54</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>9998.24</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>23424.50</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>14580.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>24300.00</t>
+  </si>
+  <si>
+    <t>18300.00</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>37880.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>54994.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85000.00</t>
+  </si>
+  <si>
+    <t>24340.00</t>
+  </si>
+  <si>
+    <t>1996.50</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>2214.00</t>
+  </si>
+  <si>
+    <t>7203.00</t>
+  </si>
+  <si>
+    <t>16990.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>622.78</t>
+  </si>
+  <si>
+    <t>10613.22</t>
+  </si>
+  <si>
+    <t>4152.00</t>
+  </si>
+  <si>
+    <t>148200.02</t>
+  </si>
+  <si>
+    <t>23968.00</t>
+  </si>
+  <si>
+    <t>1420.00</t>
+  </si>
+  <si>
+    <t>33760.00</t>
+  </si>
+  <si>
+    <t>904.09</t>
+  </si>
+  <si>
+    <t>7670.00</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>11260.00</t>
+  </si>
+  <si>
+    <t>10908.43</t>
+  </si>
+  <si>
+    <t>826.83</t>
+  </si>
+  <si>
+    <t>13350.00</t>
+  </si>
+  <si>
+    <t>10965.00</t>
+  </si>
+  <si>
+    <t>9533.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>7201.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1283.74</t>
+  </si>
+  <si>
+    <t>468945.60</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>21950.00</t>
+  </si>
+  <si>
+    <t>7923.37</t>
+  </si>
+  <si>
+    <t>3079055.95</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>216.86</t>
+  </si>
+  <si>
+    <t>2350.00</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>116190.00</t>
+  </si>
+  <si>
+    <t>122190.00</t>
+  </si>
+  <si>
+    <t>118670.00</t>
+  </si>
+  <si>
+    <t>200190.00</t>
+  </si>
+  <si>
+    <t>284190.00</t>
+  </si>
+  <si>
+    <t>299910.00</t>
+  </si>
+  <si>
+    <t>117415.00</t>
+  </si>
+  <si>
+    <t>201440.00</t>
+  </si>
+  <si>
+    <t>285470.00</t>
+  </si>
+  <si>
+    <t>184190.00</t>
+  </si>
+  <si>
+    <t>122890.00</t>
+  </si>
+  <si>
+    <t>666861.76</t>
+  </si>
+  <si>
+    <t>81102.50</t>
+  </si>
+  <si>
+    <t>60574.00</t>
+  </si>
+  <si>
+    <t>8223.00</t>
+  </si>
+  <si>
+    <t>151653.00</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>5180.00</t>
+  </si>
+  <si>
+    <t>14500.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>7061.00</t>
+  </si>
+  <si>
+    <t>6380.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>16479.88</t>
+  </si>
+  <si>
+    <t>1802.04</t>
   </si>
 </sst>
 </file>
